--- a/data/pca/factorExposure/factorExposure_2015-07-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-07-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.01979045874292102</v>
+        <v>-0.01088809415716272</v>
       </c>
       <c r="C2">
-        <v>-0.02349608413233284</v>
+        <v>-0.05061523622744436</v>
       </c>
       <c r="D2">
-        <v>0.1213954231577502</v>
+        <v>0.1407960730472331</v>
       </c>
       <c r="E2">
-        <v>-0.005421802474566681</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.01105938277144689</v>
+      </c>
+      <c r="F2">
+        <v>-0.0149384413430622</v>
+      </c>
+      <c r="G2">
+        <v>-0.1164457097546528</v>
+      </c>
+      <c r="H2">
+        <v>-0.07073275769745058</v>
+      </c>
+      <c r="I2">
+        <v>-0.03279992268934905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.000552133673325928</v>
+        <v>0.002762646230093301</v>
       </c>
       <c r="C3">
-        <v>-0.01256317861738096</v>
+        <v>-0.008463549235214265</v>
       </c>
       <c r="D3">
-        <v>0.005924250269942032</v>
+        <v>0.006062869159120981</v>
       </c>
       <c r="E3">
-        <v>0.006140707883195516</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.01867913168979723</v>
+      </c>
+      <c r="F3">
+        <v>0.00763578001978896</v>
+      </c>
+      <c r="G3">
+        <v>-0.004467408586810293</v>
+      </c>
+      <c r="H3">
+        <v>-0.003621539701207392</v>
+      </c>
+      <c r="I3">
+        <v>0.0288980079662466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04604458788245089</v>
+        <v>-0.01993435292897179</v>
       </c>
       <c r="C4">
-        <v>-0.06916932252634693</v>
+        <v>-0.09954021823870773</v>
       </c>
       <c r="D4">
-        <v>0.1297779235295674</v>
+        <v>0.1390324488258514</v>
       </c>
       <c r="E4">
-        <v>0.07265151994465981</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01556723788945196</v>
+      </c>
+      <c r="F4">
+        <v>-0.08787365819935664</v>
+      </c>
+      <c r="G4">
+        <v>-0.008685498819015869</v>
+      </c>
+      <c r="H4">
+        <v>-0.04816823125143833</v>
+      </c>
+      <c r="I4">
+        <v>-0.03679177314923814</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02493385103988775</v>
+        <v>-0.02801302331522621</v>
       </c>
       <c r="C6">
-        <v>-0.01056183351729702</v>
+        <v>-0.02795770817358877</v>
       </c>
       <c r="D6">
-        <v>0.1421844030858936</v>
+        <v>0.127158566266761</v>
       </c>
       <c r="E6">
-        <v>0.03109690383383654</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.04688810023245352</v>
+      </c>
+      <c r="F6">
+        <v>-0.05345904812679998</v>
+      </c>
+      <c r="G6">
+        <v>-0.007794647870397247</v>
+      </c>
+      <c r="H6">
+        <v>-0.06338578741566318</v>
+      </c>
+      <c r="I6">
+        <v>0.02266306552256267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.008071602153432554</v>
+        <v>-0.008855662202913952</v>
       </c>
       <c r="C7">
-        <v>-0.02279126622937769</v>
+        <v>-0.03265639117183211</v>
       </c>
       <c r="D7">
-        <v>0.1139847102648393</v>
+        <v>0.101215940988416</v>
       </c>
       <c r="E7">
-        <v>-0.004512947011513494</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.04953599859731905</v>
+      </c>
+      <c r="F7">
+        <v>-0.006760214470932579</v>
+      </c>
+      <c r="G7">
+        <v>0.01112867217849764</v>
+      </c>
+      <c r="H7">
+        <v>-0.07276001352105992</v>
+      </c>
+      <c r="I7">
+        <v>0.01831473938735993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0006335275761222259</v>
+        <v>0.01041038109817392</v>
       </c>
       <c r="C8">
-        <v>-0.02668802673116642</v>
+        <v>-0.03211495223284595</v>
       </c>
       <c r="D8">
-        <v>0.0829829189897977</v>
+        <v>0.08124850095971174</v>
       </c>
       <c r="E8">
-        <v>0.01972347645426495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.019793279845745</v>
+      </c>
+      <c r="F8">
+        <v>-0.04340353322922195</v>
+      </c>
+      <c r="G8">
+        <v>-0.06950004061315782</v>
+      </c>
+      <c r="H8">
+        <v>-0.0134384822780737</v>
+      </c>
+      <c r="I8">
+        <v>0.04175861373119036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03949744233801358</v>
+        <v>-0.0147717114494917</v>
       </c>
       <c r="C9">
-        <v>-0.06054983364143788</v>
+        <v>-0.08388206510080402</v>
       </c>
       <c r="D9">
-        <v>0.132161924107756</v>
+        <v>0.1210788584662314</v>
       </c>
       <c r="E9">
-        <v>0.05655952641002045</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.005846263441065589</v>
+      </c>
+      <c r="F9">
+        <v>-0.05782689472977431</v>
+      </c>
+      <c r="G9">
+        <v>0.01351420352684937</v>
+      </c>
+      <c r="H9">
+        <v>-0.06219949330189345</v>
+      </c>
+      <c r="I9">
+        <v>-0.006902686910284294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1518849809623337</v>
+        <v>-0.2313479344744516</v>
       </c>
       <c r="C10">
-        <v>0.1833187326688639</v>
+        <v>0.1025278735318925</v>
       </c>
       <c r="D10">
-        <v>0.01431496115670328</v>
+        <v>-0.003930560195671564</v>
       </c>
       <c r="E10">
-        <v>0.0476805308473321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.0244235876609992</v>
+      </c>
+      <c r="F10">
+        <v>-0.03727793861157924</v>
+      </c>
+      <c r="G10">
+        <v>-0.003663516156173312</v>
+      </c>
+      <c r="H10">
+        <v>0.0642257675756833</v>
+      </c>
+      <c r="I10">
+        <v>0.1216780478031677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.02312080197602016</v>
+        <v>-0.009787922820169777</v>
       </c>
       <c r="C11">
-        <v>-0.03986503215109739</v>
+        <v>-0.05249684043864263</v>
       </c>
       <c r="D11">
-        <v>0.051175632432038</v>
+        <v>0.04444805893131377</v>
       </c>
       <c r="E11">
-        <v>-0.01726323031522898</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.0189867661026587</v>
+      </c>
+      <c r="F11">
+        <v>0.01083099732147507</v>
+      </c>
+      <c r="G11">
+        <v>0.005085502843644868</v>
+      </c>
+      <c r="H11">
+        <v>-0.05052141145917815</v>
+      </c>
+      <c r="I11">
+        <v>-0.04112074944104047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.02547680918183428</v>
+        <v>-0.01033896258054114</v>
       </c>
       <c r="C12">
-        <v>-0.04039840800920451</v>
+        <v>-0.04981710556728937</v>
       </c>
       <c r="D12">
-        <v>0.06565788883775035</v>
+        <v>0.04983018491763035</v>
       </c>
       <c r="E12">
-        <v>-0.009008115813605243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01797888282638443</v>
+      </c>
+      <c r="F12">
+        <v>0.01715320190082881</v>
+      </c>
+      <c r="G12">
+        <v>0.02898848520510601</v>
+      </c>
+      <c r="H12">
+        <v>-0.07101301227757004</v>
+      </c>
+      <c r="I12">
+        <v>-0.0260796934554018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.005973458235923918</v>
+        <v>0.001199799582088652</v>
       </c>
       <c r="C13">
-        <v>-0.02593125375864016</v>
+        <v>-0.04302126225156957</v>
       </c>
       <c r="D13">
-        <v>0.1539904296233284</v>
+        <v>0.1530767170763083</v>
       </c>
       <c r="E13">
-        <v>0.02562971719103508</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03839468796733714</v>
+      </c>
+      <c r="F13">
+        <v>-0.03537350623953577</v>
+      </c>
+      <c r="G13">
+        <v>-0.02866309742778751</v>
+      </c>
+      <c r="H13">
+        <v>-0.08501502605505971</v>
+      </c>
+      <c r="I13">
+        <v>0.09110047189494506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.001798871047953025</v>
+        <v>0.001061605719253954</v>
       </c>
       <c r="C14">
-        <v>-0.02115803066481555</v>
+        <v>-0.0279883910617279</v>
       </c>
       <c r="D14">
-        <v>0.1078263896293757</v>
+        <v>0.1039277260478093</v>
       </c>
       <c r="E14">
-        <v>0.004779203121091362</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.03266651167572007</v>
+      </c>
+      <c r="F14">
+        <v>-0.02263929244209009</v>
+      </c>
+      <c r="G14">
+        <v>-0.001464252059744853</v>
+      </c>
+      <c r="H14">
+        <v>-0.1256549600088875</v>
+      </c>
+      <c r="I14">
+        <v>0.01282220611621749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.001229713783531585</v>
+        <v>0.00100461048352397</v>
       </c>
       <c r="C15">
-        <v>-0.01094324529834514</v>
+        <v>-0.01917402410066311</v>
       </c>
       <c r="D15">
-        <v>0.02683984713270123</v>
+        <v>0.05362460751104842</v>
       </c>
       <c r="E15">
-        <v>-0.00570479700602294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.006288910443064408</v>
+      </c>
+      <c r="F15">
+        <v>-0.00272289858017398</v>
+      </c>
+      <c r="G15">
+        <v>-0.02042563248531201</v>
+      </c>
+      <c r="H15">
+        <v>-0.02362158735087553</v>
+      </c>
+      <c r="I15">
+        <v>-0.02088009777715647</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.02330732300095384</v>
+        <v>-0.01013318561183613</v>
       </c>
       <c r="C16">
-        <v>-0.03817625563247417</v>
+        <v>-0.04829990941486095</v>
       </c>
       <c r="D16">
-        <v>0.05836089208079653</v>
+        <v>0.04575796025267537</v>
       </c>
       <c r="E16">
-        <v>-0.01089989839242536</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02057136597348813</v>
+      </c>
+      <c r="F16">
+        <v>0.007961765025739132</v>
+      </c>
+      <c r="G16">
+        <v>0.01774670933152649</v>
+      </c>
+      <c r="H16">
+        <v>-0.05389942071239313</v>
+      </c>
+      <c r="I16">
+        <v>-0.03872726358850101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.006763985689193797</v>
+        <v>0.0001286335255196302</v>
       </c>
       <c r="C19">
-        <v>-0.02279990827845636</v>
+        <v>-0.02085476637811681</v>
       </c>
       <c r="D19">
-        <v>0.1164101957124563</v>
+        <v>0.07383746957298833</v>
       </c>
       <c r="E19">
-        <v>0.03956139681536346</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.02142341663423242</v>
+      </c>
+      <c r="F19">
+        <v>-0.009876627493294526</v>
+      </c>
+      <c r="G19">
+        <v>-0.0142465769863811</v>
+      </c>
+      <c r="H19">
+        <v>-0.07328818281053637</v>
+      </c>
+      <c r="I19">
+        <v>0.04851846043040733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.005711232858559889</v>
+        <v>-0.004057307846983243</v>
       </c>
       <c r="C20">
-        <v>-0.02633151053510188</v>
+        <v>-0.03775890624300644</v>
       </c>
       <c r="D20">
-        <v>0.09209050791670199</v>
+        <v>0.09698939113051136</v>
       </c>
       <c r="E20">
-        <v>0.03077740611342746</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.007598661463694795</v>
+      </c>
+      <c r="F20">
+        <v>-0.02715156864172466</v>
+      </c>
+      <c r="G20">
+        <v>0.002645604465365965</v>
+      </c>
+      <c r="H20">
+        <v>-0.05918651990177567</v>
+      </c>
+      <c r="I20">
+        <v>-0.0005107586697646381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.008807083152664107</v>
+        <v>-0.003505622484292413</v>
       </c>
       <c r="C21">
-        <v>-0.0313191475881442</v>
+        <v>-0.04068535569901503</v>
       </c>
       <c r="D21">
-        <v>0.1687384155440439</v>
+        <v>0.1342926967252101</v>
       </c>
       <c r="E21">
-        <v>0.06157266356674636</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.0004425478333149667</v>
+      </c>
+      <c r="F21">
+        <v>-0.07077665001344785</v>
+      </c>
+      <c r="G21">
+        <v>-0.003443548135826451</v>
+      </c>
+      <c r="H21">
+        <v>-0.1800050396443219</v>
+      </c>
+      <c r="I21">
+        <v>0.1132057083915091</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.002869750111646579</v>
+        <v>0.01117603460246276</v>
       </c>
       <c r="C22">
-        <v>-0.06117860008465749</v>
+        <v>-0.08045165889090176</v>
       </c>
       <c r="D22">
-        <v>0.2183350854520587</v>
+        <v>0.2617372065114087</v>
       </c>
       <c r="E22">
-        <v>-0.03812953408312342</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.04874220270169472</v>
+      </c>
+      <c r="F22">
+        <v>-0.03199354506789572</v>
+      </c>
+      <c r="G22">
+        <v>-0.3663367615574343</v>
+      </c>
+      <c r="H22">
+        <v>0.3760156285995706</v>
+      </c>
+      <c r="I22">
+        <v>-0.1160718166266856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.003143342345036909</v>
+        <v>0.01067243865246218</v>
       </c>
       <c r="C23">
-        <v>-0.06164516924539261</v>
+        <v>-0.08139395321362509</v>
       </c>
       <c r="D23">
-        <v>0.2179028913112564</v>
+        <v>0.2623399007921449</v>
       </c>
       <c r="E23">
-        <v>-0.03796464783769579</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.04562166016294565</v>
+      </c>
+      <c r="F23">
+        <v>-0.03136090244962507</v>
+      </c>
+      <c r="G23">
+        <v>-0.3652456257136341</v>
+      </c>
+      <c r="H23">
+        <v>0.3765691590909789</v>
+      </c>
+      <c r="I23">
+        <v>-0.1179277970986093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.03043453278516061</v>
+        <v>-0.009681294468232873</v>
       </c>
       <c r="C24">
-        <v>-0.05526945594053202</v>
+        <v>-0.06527795829072214</v>
       </c>
       <c r="D24">
-        <v>0.071029508751383</v>
+        <v>0.05413115153218619</v>
       </c>
       <c r="E24">
-        <v>-0.008496194320530955</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02516190347444282</v>
+      </c>
+      <c r="F24">
+        <v>0.006381387932474247</v>
+      </c>
+      <c r="G24">
+        <v>0.01310513298225359</v>
+      </c>
+      <c r="H24">
+        <v>-0.07826522338085251</v>
+      </c>
+      <c r="I24">
+        <v>-0.0384029668019853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.03208668627240337</v>
+        <v>-0.01283163325676458</v>
       </c>
       <c r="C25">
-        <v>-0.04714363872385865</v>
+        <v>-0.06077195464238022</v>
       </c>
       <c r="D25">
-        <v>0.06399463819470375</v>
+        <v>0.0514352617525213</v>
       </c>
       <c r="E25">
-        <v>-0.002572918668903614</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01060008549577936</v>
+      </c>
+      <c r="F25">
+        <v>0.007485124151851382</v>
+      </c>
+      <c r="G25">
+        <v>0.01600669010110209</v>
+      </c>
+      <c r="H25">
+        <v>-0.04594596654147746</v>
+      </c>
+      <c r="I25">
+        <v>-0.02575307724642567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.01008827561097664</v>
+        <v>-0.00555215859283418</v>
       </c>
       <c r="C26">
-        <v>-0.01520929462607559</v>
+        <v>-0.02572161270355329</v>
       </c>
       <c r="D26">
-        <v>0.08193011055530881</v>
+        <v>0.06930086147421255</v>
       </c>
       <c r="E26">
-        <v>0.01343348912860241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02535257776930291</v>
+      </c>
+      <c r="F26">
+        <v>-0.02209700780479408</v>
+      </c>
+      <c r="G26">
+        <v>0.0116844116546452</v>
+      </c>
+      <c r="H26">
+        <v>-0.08621244671698387</v>
+      </c>
+      <c r="I26">
+        <v>0.04881600079998686</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2326146122488423</v>
+        <v>-0.3200987049600573</v>
       </c>
       <c r="C28">
-        <v>0.2278737887072078</v>
+        <v>0.1084149217573049</v>
       </c>
       <c r="D28">
-        <v>0.02325605802802071</v>
+        <v>-0.007934737125028117</v>
       </c>
       <c r="E28">
-        <v>0.06756298374468107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05177779856071126</v>
+      </c>
+      <c r="F28">
+        <v>-0.03635594194880173</v>
+      </c>
+      <c r="G28">
+        <v>-0.01927615472811302</v>
+      </c>
+      <c r="H28">
+        <v>0.01337700871274106</v>
+      </c>
+      <c r="I28">
+        <v>0.1473390228678651</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.001927559342846594</v>
+        <v>0.001955179199131789</v>
       </c>
       <c r="C29">
-        <v>-0.02307956968357181</v>
+        <v>-0.0300050053054855</v>
       </c>
       <c r="D29">
-        <v>0.1026775145145501</v>
+        <v>0.09791299973118757</v>
       </c>
       <c r="E29">
-        <v>0.008765786427888835</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.04295960693665703</v>
+      </c>
+      <c r="F29">
+        <v>-0.02887221819177011</v>
+      </c>
+      <c r="G29">
+        <v>0.01189876721466771</v>
+      </c>
+      <c r="H29">
+        <v>-0.128637943655967</v>
+      </c>
+      <c r="I29">
+        <v>0.014370443925903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02803134436106457</v>
+        <v>-0.01679426142918917</v>
       </c>
       <c r="C30">
-        <v>-0.05767001531530182</v>
+        <v>-0.082356257122793</v>
       </c>
       <c r="D30">
-        <v>0.1670080952318994</v>
+        <v>0.1634730451948105</v>
       </c>
       <c r="E30">
-        <v>0.01727807551937287</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.03952930294212834</v>
+      </c>
+      <c r="F30">
+        <v>-0.03805748660745616</v>
+      </c>
+      <c r="G30">
+        <v>-0.03449517860467108</v>
+      </c>
+      <c r="H30">
+        <v>-0.05978065560117842</v>
+      </c>
+      <c r="I30">
+        <v>-0.06762489482424418</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.04902700284828113</v>
+        <v>-0.01022715766894281</v>
       </c>
       <c r="C31">
-        <v>-0.08344809106986248</v>
+        <v>-0.09266143986416692</v>
       </c>
       <c r="D31">
-        <v>0.07207799618877278</v>
+        <v>0.04157655122658123</v>
       </c>
       <c r="E31">
-        <v>0.008596029914703813</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.008140210515763786</v>
+      </c>
+      <c r="F31">
+        <v>-0.01074697222071426</v>
+      </c>
+      <c r="G31">
+        <v>-0.0001954030024818493</v>
+      </c>
+      <c r="H31">
+        <v>-0.04833218629671254</v>
+      </c>
+      <c r="I31">
+        <v>0.07329792054734872</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.02172849696659503</v>
+        <v>-0.008330250572513237</v>
       </c>
       <c r="C32">
-        <v>-0.03437992585453222</v>
+        <v>-0.04504511751088751</v>
       </c>
       <c r="D32">
-        <v>0.1083605302537841</v>
+        <v>0.1116486066898942</v>
       </c>
       <c r="E32">
-        <v>0.06249079013950901</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.007638436426704638</v>
+      </c>
+      <c r="F32">
+        <v>-0.04804793218537633</v>
+      </c>
+      <c r="G32">
+        <v>-0.02709260812062436</v>
+      </c>
+      <c r="H32">
+        <v>-0.0503998493285835</v>
+      </c>
+      <c r="I32">
+        <v>0.07878074045336524</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.01646605908723929</v>
+        <v>-0.006486929943695605</v>
       </c>
       <c r="C33">
-        <v>-0.04148896700465449</v>
+        <v>-0.05569201431419454</v>
       </c>
       <c r="D33">
-        <v>0.1495354340837071</v>
+        <v>0.1274742138963963</v>
       </c>
       <c r="E33">
-        <v>0.03429549743915617</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.01485609253775701</v>
+      </c>
+      <c r="F33">
+        <v>-0.02766710771899721</v>
+      </c>
+      <c r="G33">
+        <v>-0.005309958554874712</v>
+      </c>
+      <c r="H33">
+        <v>-0.07249656490955625</v>
+      </c>
+      <c r="I33">
+        <v>0.018305880706546</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02722692991802541</v>
+        <v>-0.006528673773560832</v>
       </c>
       <c r="C34">
-        <v>-0.05724274829548073</v>
+        <v>-0.06204558014498367</v>
       </c>
       <c r="D34">
-        <v>0.05029917928931163</v>
+        <v>0.03191456448307393</v>
       </c>
       <c r="E34">
-        <v>-0.04926598224780152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02839484881990144</v>
+      </c>
+      <c r="F34">
+        <v>0.03558938572197762</v>
+      </c>
+      <c r="G34">
+        <v>0.01017853597776828</v>
+      </c>
+      <c r="H34">
+        <v>-0.06003894096262069</v>
+      </c>
+      <c r="I34">
+        <v>-0.01642626492230264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0003901855323751682</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.004739409851681182</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.01587545544910066</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.004166083532459057</v>
+      </c>
+      <c r="F35">
+        <v>-0.00191913263713315</v>
+      </c>
+      <c r="G35">
+        <v>0.003771848263038531</v>
+      </c>
+      <c r="H35">
+        <v>-0.01450684848016926</v>
+      </c>
+      <c r="I35">
+        <v>-0.007050733447511639</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.009683893168035281</v>
+        <v>-0.006651868270632549</v>
       </c>
       <c r="C36">
-        <v>-0.006561692562924042</v>
+        <v>-0.01965904240184442</v>
       </c>
       <c r="D36">
-        <v>0.09393361953396809</v>
+        <v>0.07829804655296332</v>
       </c>
       <c r="E36">
-        <v>0.03839625808786322</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.007110589698443688</v>
+      </c>
+      <c r="F36">
+        <v>-0.03557443750477874</v>
+      </c>
+      <c r="G36">
+        <v>0.003696550161140974</v>
+      </c>
+      <c r="H36">
+        <v>-0.06549344851571903</v>
+      </c>
+      <c r="I36">
+        <v>0.03456771931870847</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.007541555575385044</v>
+        <v>-0.01417802515160998</v>
       </c>
       <c r="C38">
-        <v>-0.007551667831414759</v>
+        <v>-0.0156564442271203</v>
       </c>
       <c r="D38">
-        <v>0.09004559782819427</v>
+        <v>0.0851235110383515</v>
       </c>
       <c r="E38">
-        <v>0.006515341554663821</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.009572571945411385</v>
+      </c>
+      <c r="F38">
+        <v>0.008278772077562285</v>
+      </c>
+      <c r="G38">
+        <v>-0.01643110439663157</v>
+      </c>
+      <c r="H38">
+        <v>-0.05873509909354495</v>
+      </c>
+      <c r="I38">
+        <v>0.03809455592728513</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.02391642535109344</v>
+        <v>-0.006357474722625421</v>
       </c>
       <c r="C39">
-        <v>-0.05650351750330864</v>
+        <v>-0.07506132217381141</v>
       </c>
       <c r="D39">
-        <v>0.1183080333327849</v>
+        <v>0.1068266711879794</v>
       </c>
       <c r="E39">
-        <v>-0.02338958676304762</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.04831173168821385</v>
+      </c>
+      <c r="F39">
+        <v>0.005348561968166973</v>
+      </c>
+      <c r="G39">
+        <v>0.0159813726738276</v>
+      </c>
+      <c r="H39">
+        <v>-0.1052914554195462</v>
+      </c>
+      <c r="I39">
+        <v>-0.07205615717823705</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01237095976243828</v>
+        <v>-0.01131247637903431</v>
       </c>
       <c r="C40">
-        <v>-0.01742284319697098</v>
+        <v>-0.02543845979555018</v>
       </c>
       <c r="D40">
-        <v>0.1182535684920074</v>
+        <v>0.09690766810974323</v>
       </c>
       <c r="E40">
-        <v>-0.02645715824642041</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.0430104702349366</v>
+      </c>
+      <c r="F40">
+        <v>0.02451801963773194</v>
+      </c>
+      <c r="G40">
+        <v>-0.06177104946938507</v>
+      </c>
+      <c r="H40">
+        <v>-0.08128925882980648</v>
+      </c>
+      <c r="I40">
+        <v>0.06126134679041198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01255490512329061</v>
+        <v>-0.01146258107931292</v>
       </c>
       <c r="C41">
-        <v>-0.008395309908156835</v>
+        <v>-0.01636387514310604</v>
       </c>
       <c r="D41">
-        <v>0.05938261325096117</v>
+        <v>0.04152444347800747</v>
       </c>
       <c r="E41">
-        <v>0.03003883255853354</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.02191998283097726</v>
+      </c>
+      <c r="F41">
+        <v>-0.01713614712973378</v>
+      </c>
+      <c r="G41">
+        <v>-0.01104060172852796</v>
+      </c>
+      <c r="H41">
+        <v>-0.04659857592510822</v>
+      </c>
+      <c r="I41">
+        <v>0.05050291955268742</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.007133136444671445</v>
+        <v>-0.005401724558727773</v>
       </c>
       <c r="C43">
-        <v>-0.01149505809078492</v>
+        <v>-0.01658682891698637</v>
       </c>
       <c r="D43">
-        <v>0.07042438870935229</v>
+        <v>0.05107340180379676</v>
       </c>
       <c r="E43">
-        <v>0.01865652808134362</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.005663608252175404</v>
+      </c>
+      <c r="F43">
+        <v>-0.01427520069104593</v>
+      </c>
+      <c r="G43">
+        <v>-0.0105306939124832</v>
+      </c>
+      <c r="H43">
+        <v>-0.06926082113446107</v>
+      </c>
+      <c r="I43">
+        <v>0.0401651811034101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01760701006073054</v>
+        <v>-0.01088953357606979</v>
       </c>
       <c r="C44">
-        <v>-0.02577554220457079</v>
+        <v>-0.04460055922517481</v>
       </c>
       <c r="D44">
-        <v>0.1147619304584335</v>
+        <v>0.1191214502975342</v>
       </c>
       <c r="E44">
-        <v>0.04106387644646385</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.02165331469737822</v>
+      </c>
+      <c r="F44">
+        <v>-0.02818090628859187</v>
+      </c>
+      <c r="G44">
+        <v>-0.01857928720817495</v>
+      </c>
+      <c r="H44">
+        <v>-0.05162005568541873</v>
+      </c>
+      <c r="I44">
+        <v>-0.05755736930354318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.01027524425825668</v>
+        <v>0.00175735165484951</v>
       </c>
       <c r="C46">
-        <v>-0.02954467475153984</v>
+        <v>-0.03994219132911083</v>
       </c>
       <c r="D46">
-        <v>0.09911230238081509</v>
+        <v>0.08415428944438781</v>
       </c>
       <c r="E46">
-        <v>0.01561593256831828</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.02519126359518432</v>
+      </c>
+      <c r="F46">
+        <v>-0.02706761793229153</v>
+      </c>
+      <c r="G46">
+        <v>-0.005042914480319652</v>
+      </c>
+      <c r="H46">
+        <v>-0.1439998826126158</v>
+      </c>
+      <c r="I46">
+        <v>0.02121687961401611</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09092515164075549</v>
+        <v>-0.03648940161050977</v>
       </c>
       <c r="C47">
-        <v>-0.09995133246287828</v>
+        <v>-0.1231805145114701</v>
       </c>
       <c r="D47">
-        <v>0.06016684658092369</v>
+        <v>0.02368963051915289</v>
       </c>
       <c r="E47">
-        <v>0.02384461615446726</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.0204690602100111</v>
+      </c>
+      <c r="F47">
+        <v>0.01485002021642837</v>
+      </c>
+      <c r="G47">
+        <v>0.05313345798467287</v>
+      </c>
+      <c r="H47">
+        <v>-0.03608271502066721</v>
+      </c>
+      <c r="I47">
+        <v>0.1388728324158839</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.007868331215562085</v>
+        <v>-0.004473819897934725</v>
       </c>
       <c r="C48">
-        <v>-0.01641103698715246</v>
+        <v>-0.02828501969031</v>
       </c>
       <c r="D48">
-        <v>0.09662216302069873</v>
+        <v>0.08235837944679758</v>
       </c>
       <c r="E48">
-        <v>0.05032778795742771</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.004833464691887317</v>
+      </c>
+      <c r="F48">
+        <v>-0.03984077436042981</v>
+      </c>
+      <c r="G48">
+        <v>-0.0006064082795288039</v>
+      </c>
+      <c r="H48">
+        <v>-0.09868485505629879</v>
+      </c>
+      <c r="I48">
+        <v>0.02271061491186465</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.04512327996994348</v>
+        <v>-0.01298033983468858</v>
       </c>
       <c r="C50">
-        <v>-0.06135826959563396</v>
+        <v>-0.07547596088357121</v>
       </c>
       <c r="D50">
-        <v>0.0714069225365208</v>
+        <v>0.04705941416804398</v>
       </c>
       <c r="E50">
-        <v>0.004937227820204773</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>7.589733021190872e-05</v>
+      </c>
+      <c r="F50">
+        <v>-0.00651777466945631</v>
+      </c>
+      <c r="G50">
+        <v>-0.02199404048288207</v>
+      </c>
+      <c r="H50">
+        <v>-0.04130372640981574</v>
+      </c>
+      <c r="I50">
+        <v>0.1285427606850237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.003944612123626289</v>
+        <v>-0.001936546947524188</v>
       </c>
       <c r="C51">
-        <v>-0.003486936273063413</v>
+        <v>-0.01602118581709682</v>
       </c>
       <c r="D51">
-        <v>0.05970234370546777</v>
+        <v>0.06703438187487359</v>
       </c>
       <c r="E51">
-        <v>0.001875827793830716</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03643588268777729</v>
+      </c>
+      <c r="F51">
+        <v>-0.03704934225664275</v>
+      </c>
+      <c r="G51">
+        <v>-0.03421848833536698</v>
+      </c>
+      <c r="H51">
+        <v>-0.05089519380366925</v>
+      </c>
+      <c r="I51">
+        <v>0.01066028023693217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1181782259853685</v>
+        <v>-0.05962368439046103</v>
       </c>
       <c r="C53">
-        <v>-0.114832775112944</v>
+        <v>-0.1569904862764055</v>
       </c>
       <c r="D53">
-        <v>0.02049432884776999</v>
+        <v>-0.01363212318764321</v>
       </c>
       <c r="E53">
-        <v>0.05539299397474823</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03558175655742476</v>
+      </c>
+      <c r="F53">
+        <v>-0.04684177673306115</v>
+      </c>
+      <c r="G53">
+        <v>-0.008509651681853766</v>
+      </c>
+      <c r="H53">
+        <v>-0.006399488191118658</v>
+      </c>
+      <c r="I53">
+        <v>0.08491578100677682</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01924290463707968</v>
+        <v>-0.01025179764301924</v>
       </c>
       <c r="C54">
-        <v>-0.02283194037731005</v>
+        <v>-0.04054445355550394</v>
       </c>
       <c r="D54">
-        <v>0.1059024525889373</v>
+        <v>0.08324452163640207</v>
       </c>
       <c r="E54">
-        <v>-0.002455335506651447</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01128292091043162</v>
+      </c>
+      <c r="F54">
+        <v>0.004105094006668692</v>
+      </c>
+      <c r="G54">
+        <v>-0.01830753375941193</v>
+      </c>
+      <c r="H54">
+        <v>-0.09808550445957477</v>
+      </c>
+      <c r="I54">
+        <v>0.04824396712876013</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1043380129099013</v>
+        <v>-0.0468646206529096</v>
       </c>
       <c r="C55">
-        <v>-0.09672960253647124</v>
+        <v>-0.1291164598405216</v>
       </c>
       <c r="D55">
-        <v>0.00867259000370813</v>
+        <v>-0.02522495744604902</v>
       </c>
       <c r="E55">
-        <v>0.01250286272672988</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.00125266188455489</v>
+      </c>
+      <c r="F55">
+        <v>-0.01233234677037315</v>
+      </c>
+      <c r="G55">
+        <v>-0.01427005029859877</v>
+      </c>
+      <c r="H55">
+        <v>-0.01182592634558916</v>
+      </c>
+      <c r="I55">
+        <v>0.08794435913615774</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1463138347586218</v>
+        <v>-0.06547696246204254</v>
       </c>
       <c r="C56">
-        <v>-0.1275417694930501</v>
+        <v>-0.1868619606345605</v>
       </c>
       <c r="D56">
-        <v>0.007973116092912175</v>
+        <v>-0.02273240694772253</v>
       </c>
       <c r="E56">
-        <v>0.0141639257736019</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03420888295228565</v>
+      </c>
+      <c r="F56">
+        <v>-0.01411542081792453</v>
+      </c>
+      <c r="G56">
+        <v>-0.06393633655439822</v>
+      </c>
+      <c r="H56">
+        <v>-0.005414494191256871</v>
+      </c>
+      <c r="I56">
+        <v>0.1075545166050477</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.001665870485585799</v>
+        <v>-0.00528746672463754</v>
       </c>
       <c r="C58">
-        <v>-0.01367907789313109</v>
+        <v>-0.04757988772287466</v>
       </c>
       <c r="D58">
-        <v>0.2280531295499231</v>
+        <v>0.2869253453134141</v>
       </c>
       <c r="E58">
-        <v>0.07284986487872906</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02178380304583703</v>
+      </c>
+      <c r="F58">
+        <v>-0.09446917181233436</v>
+      </c>
+      <c r="G58">
+        <v>-0.1296167220257759</v>
+      </c>
+      <c r="H58">
+        <v>0.08684666329348899</v>
+      </c>
+      <c r="I58">
+        <v>-0.05688736272395509</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1629146296029558</v>
+        <v>-0.2472081034844982</v>
       </c>
       <c r="C59">
-        <v>0.1688163263167993</v>
+        <v>0.07717325923325911</v>
       </c>
       <c r="D59">
-        <v>0.05022887301925068</v>
+        <v>0.05977269915695692</v>
       </c>
       <c r="E59">
-        <v>0.0367498281276325</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.03067873381523138</v>
+      </c>
+      <c r="F59">
+        <v>-0.01467205568489149</v>
+      </c>
+      <c r="G59">
+        <v>0.002885858753988253</v>
+      </c>
+      <c r="H59">
+        <v>0.01996151295384271</v>
+      </c>
+      <c r="I59">
+        <v>0.03211688314162737</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.2001389574162032</v>
+        <v>-0.1511512055720154</v>
       </c>
       <c r="C60">
-        <v>-0.08355184491543095</v>
+        <v>-0.1691046742641091</v>
       </c>
       <c r="D60">
-        <v>0.1573764150846026</v>
+        <v>0.08151224306711249</v>
       </c>
       <c r="E60">
-        <v>-0.1823904892483118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.2247222293101775</v>
+      </c>
+      <c r="F60">
+        <v>0.1618436904781232</v>
+      </c>
+      <c r="G60">
+        <v>0.2152316738333774</v>
+      </c>
+      <c r="H60">
+        <v>0.2309820428723678</v>
+      </c>
+      <c r="I60">
+        <v>-0.02221885996595818</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03394873019279557</v>
+        <v>-0.01338539238140133</v>
       </c>
       <c r="C61">
-        <v>-0.05259642023687438</v>
+        <v>-0.07137624965048163</v>
       </c>
       <c r="D61">
-        <v>0.1073094304782471</v>
+        <v>0.08344312993349504</v>
       </c>
       <c r="E61">
-        <v>-0.01134059831686433</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03618199396354009</v>
+      </c>
+      <c r="F61">
+        <v>0.01466059446207654</v>
+      </c>
+      <c r="G61">
+        <v>0.0307489717917096</v>
+      </c>
+      <c r="H61">
+        <v>-0.09430133011689852</v>
+      </c>
+      <c r="I61">
+        <v>-0.0244406257103547</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.0108178399913811</v>
+        <v>-0.001805527595950211</v>
       </c>
       <c r="C63">
-        <v>-0.0251383738950925</v>
+        <v>-0.03549614761199917</v>
       </c>
       <c r="D63">
-        <v>0.09469489711326849</v>
+        <v>0.07110471986400344</v>
       </c>
       <c r="E63">
-        <v>0.01095829921971718</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.02807483755406993</v>
+      </c>
+      <c r="F63">
+        <v>-0.02209173027528919</v>
+      </c>
+      <c r="G63">
+        <v>-0.005892695653693355</v>
+      </c>
+      <c r="H63">
+        <v>-0.06556853941147571</v>
+      </c>
+      <c r="I63">
+        <v>0.00347614363779893</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.06639412206951757</v>
+        <v>-0.02238391276923197</v>
       </c>
       <c r="C64">
-        <v>-0.08000201851074049</v>
+        <v>-0.1051891590386052</v>
       </c>
       <c r="D64">
-        <v>0.0396205345912147</v>
+        <v>0.02696097667231443</v>
       </c>
       <c r="E64">
-        <v>0.01860396716526797</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02721327396774343</v>
+      </c>
+      <c r="F64">
+        <v>-0.02180616669120281</v>
+      </c>
+      <c r="G64">
+        <v>0.05697720216390205</v>
+      </c>
+      <c r="H64">
+        <v>-0.1099686496836169</v>
+      </c>
+      <c r="I64">
+        <v>-0.06683452552795754</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02717013797569914</v>
+        <v>-0.0228006624131584</v>
       </c>
       <c r="C65">
-        <v>-0.01389097945728611</v>
+        <v>-0.03728343755413523</v>
       </c>
       <c r="D65">
-        <v>0.1186729145518208</v>
+        <v>0.1174987582348137</v>
       </c>
       <c r="E65">
-        <v>-3.439706251541165e-05</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04760851632603978</v>
+      </c>
+      <c r="F65">
+        <v>-0.00613222546713405</v>
+      </c>
+      <c r="G65">
+        <v>0.02201587542763607</v>
+      </c>
+      <c r="H65">
+        <v>-0.0458330404561659</v>
+      </c>
+      <c r="I65">
+        <v>0.006372485075699625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02659757834561852</v>
+        <v>-0.00460060278003225</v>
       </c>
       <c r="C66">
-        <v>-0.06376164797009831</v>
+        <v>-0.08992546087059003</v>
       </c>
       <c r="D66">
-        <v>0.1215394455164595</v>
+        <v>0.1305249474224417</v>
       </c>
       <c r="E66">
-        <v>-0.02667174088378316</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03447757695723505</v>
+      </c>
+      <c r="F66">
+        <v>0.0135046252382753</v>
+      </c>
+      <c r="G66">
+        <v>-0.002013420767730668</v>
+      </c>
+      <c r="H66">
+        <v>-0.06083682101619897</v>
+      </c>
+      <c r="I66">
+        <v>-0.07745924422616507</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02830475507648074</v>
+        <v>-0.02478363247817898</v>
       </c>
       <c r="C67">
-        <v>-0.01811322819638417</v>
+        <v>-0.02835412679549109</v>
       </c>
       <c r="D67">
-        <v>0.04530720062251351</v>
+        <v>0.03477730754697037</v>
       </c>
       <c r="E67">
-        <v>-0.01803089341084523</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.005444010056763911</v>
+      </c>
+      <c r="F67">
+        <v>0.03072840986450745</v>
+      </c>
+      <c r="G67">
+        <v>-0.003171049176625763</v>
+      </c>
+      <c r="H67">
+        <v>-0.06533063855686606</v>
+      </c>
+      <c r="I67">
+        <v>0.02624606336757936</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.1878340373681902</v>
+        <v>-0.2671750006034998</v>
       </c>
       <c r="C68">
-        <v>0.1792885656300196</v>
+        <v>0.0751289714760727</v>
       </c>
       <c r="D68">
-        <v>0.03101933712748312</v>
+        <v>0.03343495221406217</v>
       </c>
       <c r="E68">
-        <v>0.01256892568249857</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.005552068124125944</v>
+      </c>
+      <c r="F68">
+        <v>-0.02983468696078178</v>
+      </c>
+      <c r="G68">
+        <v>-0.06644187498390397</v>
+      </c>
+      <c r="H68">
+        <v>0.03721378464327551</v>
+      </c>
+      <c r="I68">
+        <v>0.09667580964568787</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07039058139228398</v>
+        <v>-0.02148906507947266</v>
       </c>
       <c r="C69">
-        <v>-0.1127229566626538</v>
+        <v>-0.1206588781605211</v>
       </c>
       <c r="D69">
-        <v>0.08358990127351461</v>
+        <v>0.03723538062401223</v>
       </c>
       <c r="E69">
-        <v>0.007928146058772425</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.002372532138032444</v>
+      </c>
+      <c r="F69">
+        <v>0.01769688557365763</v>
+      </c>
+      <c r="G69">
+        <v>0.04192236719805001</v>
+      </c>
+      <c r="H69">
+        <v>-0.03706421467499727</v>
+      </c>
+      <c r="I69">
+        <v>0.09631184379294118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.1937814126435513</v>
+        <v>-0.2681449316012827</v>
       </c>
       <c r="C71">
-        <v>0.1969774985060954</v>
+        <v>0.08898683839626484</v>
       </c>
       <c r="D71">
-        <v>0.02950216885129437</v>
+        <v>0.02208528874321442</v>
       </c>
       <c r="E71">
-        <v>0.0155062643736365</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.009064728161675698</v>
+      </c>
+      <c r="F71">
+        <v>-0.0154343370580979</v>
+      </c>
+      <c r="G71">
+        <v>-0.0377404156248168</v>
+      </c>
+      <c r="H71">
+        <v>-0.02409819875115841</v>
+      </c>
+      <c r="I71">
+        <v>0.1670636840584634</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1137689447256312</v>
+        <v>-0.06179299007671265</v>
       </c>
       <c r="C72">
-        <v>-0.06545374917834507</v>
+        <v>-0.1217191315303903</v>
       </c>
       <c r="D72">
-        <v>0.09938673766482679</v>
+        <v>0.06373375130343924</v>
       </c>
       <c r="E72">
-        <v>-0.05203473803910753</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.08789565360129972</v>
+      </c>
+      <c r="F72">
+        <v>0.01666830515347987</v>
+      </c>
+      <c r="G72">
+        <v>0.02767089080709075</v>
+      </c>
+      <c r="H72">
+        <v>-0.05873784595674365</v>
+      </c>
+      <c r="I72">
+        <v>-0.04470174818121541</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1864871302921391</v>
+        <v>-0.1395433040812755</v>
       </c>
       <c r="C73">
-        <v>-0.04519926966937644</v>
+        <v>-0.1393708777738188</v>
       </c>
       <c r="D73">
-        <v>0.231767047679743</v>
+        <v>0.09828100717253314</v>
       </c>
       <c r="E73">
-        <v>-0.2723242061713181</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.3772754840998867</v>
+      </c>
+      <c r="F73">
+        <v>0.2469352255206929</v>
+      </c>
+      <c r="G73">
+        <v>0.4223436583550352</v>
+      </c>
+      <c r="H73">
+        <v>0.1917197680488484</v>
+      </c>
+      <c r="I73">
+        <v>-0.07917432090305308</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1174515415565113</v>
+        <v>-0.05364091341179201</v>
       </c>
       <c r="C74">
-        <v>-0.1043058526985787</v>
+        <v>-0.1463089311103499</v>
       </c>
       <c r="D74">
-        <v>-0.02022089365453694</v>
+        <v>-0.04018237315514971</v>
       </c>
       <c r="E74">
-        <v>0.04248064919826899</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01175286911356849</v>
+      </c>
+      <c r="F74">
+        <v>-0.0413445004204154</v>
+      </c>
+      <c r="G74">
+        <v>-0.007348256091663173</v>
+      </c>
+      <c r="H74">
+        <v>0.009501291754787361</v>
+      </c>
+      <c r="I74">
+        <v>0.1107986013618711</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2527948375735856</v>
+        <v>-0.1226272702918687</v>
       </c>
       <c r="C75">
-        <v>-0.1779152047155815</v>
+        <v>-0.269699216444162</v>
       </c>
       <c r="D75">
-        <v>-0.1035322927349158</v>
+        <v>-0.1309944716196113</v>
       </c>
       <c r="E75">
-        <v>-0.008378187084099493</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.08973801772622424</v>
+      </c>
+      <c r="F75">
+        <v>0.03844254426822863</v>
+      </c>
+      <c r="G75">
+        <v>-0.104289819984616</v>
+      </c>
+      <c r="H75">
+        <v>-0.01418612258349211</v>
+      </c>
+      <c r="I75">
+        <v>0.08926391432445983</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1533017214875449</v>
+        <v>-0.06987599940890343</v>
       </c>
       <c r="C76">
-        <v>-0.1273640887702873</v>
+        <v>-0.1836156231092664</v>
       </c>
       <c r="D76">
-        <v>0.0227367630116222</v>
+        <v>-0.029338043473193</v>
       </c>
       <c r="E76">
-        <v>0.01289499633587742</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02770176769822328</v>
+      </c>
+      <c r="F76">
+        <v>-0.002646833401553028</v>
+      </c>
+      <c r="G76">
+        <v>-0.04616512731604967</v>
+      </c>
+      <c r="H76">
+        <v>-0.04260880123186955</v>
+      </c>
+      <c r="I76">
+        <v>0.117698132919253</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.01620599562307008</v>
+        <v>-0.02817056340699304</v>
       </c>
       <c r="C77">
-        <v>-0.07787838676720664</v>
+        <v>-0.09140148646959573</v>
       </c>
       <c r="D77">
-        <v>0.06576245610995235</v>
+        <v>0.2702564544237515</v>
       </c>
       <c r="E77">
-        <v>0.2177832587788813</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.7701585155057068</v>
+      </c>
+      <c r="F77">
+        <v>0.317526637632935</v>
+      </c>
+      <c r="G77">
+        <v>0.2723912213040685</v>
+      </c>
+      <c r="H77">
+        <v>0.2479023611305941</v>
+      </c>
+      <c r="I77">
+        <v>0.03000791888300412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.03135389943128218</v>
+        <v>-0.01481171798096833</v>
       </c>
       <c r="C78">
-        <v>-0.06513237659216808</v>
+        <v>-0.08497587216016805</v>
       </c>
       <c r="D78">
-        <v>0.1522327634696082</v>
+        <v>0.1380788321645196</v>
       </c>
       <c r="E78">
-        <v>0.03598362054004948</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.04428277730405354</v>
+      </c>
+      <c r="F78">
+        <v>-0.04968988432533882</v>
+      </c>
+      <c r="G78">
+        <v>-0.03886632188371787</v>
+      </c>
+      <c r="H78">
+        <v>-0.02366822162923372</v>
+      </c>
+      <c r="I78">
+        <v>0.05840720869176989</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.1028939290682159</v>
+        <v>-0.04008806036528813</v>
       </c>
       <c r="C79">
-        <v>-0.1554457433061079</v>
+        <v>-0.181949461960336</v>
       </c>
       <c r="D79">
-        <v>-0.09107614882474747</v>
+        <v>-0.06895223305824004</v>
       </c>
       <c r="E79">
-        <v>0.8037715151233593</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.1152267862454893</v>
+      </c>
+      <c r="F79">
+        <v>-0.8103010650599677</v>
+      </c>
+      <c r="G79">
+        <v>0.372779203461017</v>
+      </c>
+      <c r="H79">
+        <v>0.2415330923853619</v>
+      </c>
+      <c r="I79">
+        <v>-0.1450081055110528</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.007699982935837709</v>
+        <v>0.0004971666385189657</v>
       </c>
       <c r="C80">
-        <v>-0.04716997414283591</v>
+        <v>-0.04671808335266593</v>
       </c>
       <c r="D80">
-        <v>0.0475357502892547</v>
+        <v>0.04375680678721102</v>
       </c>
       <c r="E80">
-        <v>-0.006202054986552302</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02439452648141104</v>
+      </c>
+      <c r="F80">
+        <v>-0.008530878185936825</v>
+      </c>
+      <c r="G80">
+        <v>-0.02875675747366907</v>
+      </c>
+      <c r="H80">
+        <v>-0.01930088420781092</v>
+      </c>
+      <c r="I80">
+        <v>0.05648748165625697</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1301770340066006</v>
+        <v>-0.05025022536861645</v>
       </c>
       <c r="C81">
-        <v>-0.1227698831032751</v>
+        <v>-0.1664397890329856</v>
       </c>
       <c r="D81">
-        <v>-0.06277906435507974</v>
+        <v>-0.07591473119774093</v>
       </c>
       <c r="E81">
-        <v>0.06894799817036781</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.07019052710825116</v>
+      </c>
+      <c r="F81">
+        <v>-0.04372721633021345</v>
+      </c>
+      <c r="G81">
+        <v>-0.0426659794741355</v>
+      </c>
+      <c r="H81">
+        <v>-0.0721665485947952</v>
+      </c>
+      <c r="I81">
+        <v>0.1369416485119617</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.277658609987126</v>
+        <v>-0.1082874285493148</v>
       </c>
       <c r="C82">
-        <v>-0.2724350302257706</v>
+        <v>-0.3309702638929522</v>
       </c>
       <c r="D82">
-        <v>-0.2083794233086719</v>
+        <v>-0.2248541243199675</v>
       </c>
       <c r="E82">
-        <v>-0.1214652105094574</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.04543799982717604</v>
+      </c>
+      <c r="F82">
+        <v>0.1320376599879068</v>
+      </c>
+      <c r="G82">
+        <v>-0.06309194955978534</v>
+      </c>
+      <c r="H82">
+        <v>-0.1014793288653479</v>
+      </c>
+      <c r="I82">
+        <v>0.04438728720501055</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.001881294523890596</v>
+        <v>0.01046311325848701</v>
       </c>
       <c r="C83">
-        <v>-0.05308386713053888</v>
+        <v>-0.03459892516008568</v>
       </c>
       <c r="D83">
-        <v>0.01407303089845928</v>
+        <v>0.03682154476416485</v>
       </c>
       <c r="E83">
-        <v>0.05155799591819561</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.08729794083735766</v>
+      </c>
+      <c r="F83">
+        <v>-0.0225191461170563</v>
+      </c>
+      <c r="G83">
+        <v>-0.02838325001353827</v>
+      </c>
+      <c r="H83">
+        <v>-0.0005873500620960401</v>
+      </c>
+      <c r="I83">
+        <v>0.122147928268598</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>6.308675786277198e-05</v>
+        <v>0.002317960297311558</v>
       </c>
       <c r="C84">
-        <v>-8.669811074293578e-05</v>
+        <v>-0.01596642365834457</v>
       </c>
       <c r="D84">
-        <v>0.0007230663689391403</v>
+        <v>0.04027719784506521</v>
       </c>
       <c r="E84">
-        <v>0.0005256416330953403</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.008789083462783429</v>
+      </c>
+      <c r="F84">
+        <v>-0.01574445737944269</v>
+      </c>
+      <c r="G84">
+        <v>-0.0473424292567062</v>
+      </c>
+      <c r="H84">
+        <v>-0.002967058022410728</v>
+      </c>
+      <c r="I84">
+        <v>-0.03301246776158612</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1540510916926754</v>
+        <v>-0.06505519389640867</v>
       </c>
       <c r="C85">
-        <v>-0.1279739760827805</v>
+        <v>-0.1849294343103494</v>
       </c>
       <c r="D85">
-        <v>-0.03827200158405299</v>
+        <v>-0.08764883947339275</v>
       </c>
       <c r="E85">
-        <v>0.02737161011782368</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.0005116335403532595</v>
+      </c>
+      <c r="F85">
+        <v>-0.07648230259140266</v>
+      </c>
+      <c r="G85">
+        <v>-0.03098602852307376</v>
+      </c>
+      <c r="H85">
+        <v>-0.01286373345644939</v>
+      </c>
+      <c r="I85">
+        <v>0.09568314351526415</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01306966336740128</v>
+        <v>-0.01105122411367333</v>
       </c>
       <c r="C86">
-        <v>-0.01286283803299774</v>
+        <v>-0.02904903611902206</v>
       </c>
       <c r="D86">
-        <v>0.08137349129669903</v>
+        <v>0.1079118654723802</v>
       </c>
       <c r="E86">
-        <v>0.04926333261650708</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04417234851730358</v>
+      </c>
+      <c r="F86">
+        <v>0.01080649500730925</v>
+      </c>
+      <c r="G86">
+        <v>0.01976609781352988</v>
+      </c>
+      <c r="H86">
+        <v>-0.004495617490389857</v>
+      </c>
+      <c r="I86">
+        <v>0.09238502241919502</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01573804267902667</v>
+        <v>-0.009626803305947054</v>
       </c>
       <c r="C87">
-        <v>-0.02819428240405723</v>
+        <v>-0.05527325170892188</v>
       </c>
       <c r="D87">
-        <v>0.1297301030028324</v>
+        <v>0.1480579724221554</v>
       </c>
       <c r="E87">
-        <v>0.04307030319174683</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.004831774712668576</v>
+      </c>
+      <c r="F87">
+        <v>-0.04068807078451368</v>
+      </c>
+      <c r="G87">
+        <v>-0.06609843997245286</v>
+      </c>
+      <c r="H87">
+        <v>-0.03125389624927456</v>
+      </c>
+      <c r="I87">
+        <v>-0.04124741295271688</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.06110016065128492</v>
+        <v>-0.03105780171056348</v>
       </c>
       <c r="C88">
-        <v>-0.04511780219256829</v>
+        <v>-0.06875194899692835</v>
       </c>
       <c r="D88">
-        <v>0.03396085357112973</v>
+        <v>0.005838192677599286</v>
       </c>
       <c r="E88">
-        <v>0.02904161672221727</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01382969530130237</v>
+      </c>
+      <c r="F88">
+        <v>-0.02128410945337952</v>
+      </c>
+      <c r="G88">
+        <v>0.00141497595719661</v>
+      </c>
+      <c r="H88">
+        <v>-0.03490573820614441</v>
+      </c>
+      <c r="I88">
+        <v>0.05053721872417848</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.2885703866429948</v>
+        <v>-0.4101946387449648</v>
       </c>
       <c r="C89">
-        <v>0.3577426083460938</v>
+        <v>0.1734942224536848</v>
       </c>
       <c r="D89">
-        <v>0.02501738209662178</v>
+        <v>0.02637367199190668</v>
       </c>
       <c r="E89">
-        <v>0.09610096865142341</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02220501711346856</v>
+      </c>
+      <c r="F89">
+        <v>-0.0717749117696616</v>
+      </c>
+      <c r="G89">
+        <v>-0.04373923916786212</v>
+      </c>
+      <c r="H89">
+        <v>-0.1416058753241063</v>
+      </c>
+      <c r="I89">
+        <v>-0.3571536627725104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2313633289368558</v>
+        <v>-0.3138120563604929</v>
       </c>
       <c r="C90">
-        <v>0.2623372167631678</v>
+        <v>0.1151988518747583</v>
       </c>
       <c r="D90">
-        <v>0.0362399761982138</v>
+        <v>0.03509871556035386</v>
       </c>
       <c r="E90">
-        <v>-0.008289400995298155</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.0145377746449124</v>
+      </c>
+      <c r="F90">
+        <v>0.01917044578058869</v>
+      </c>
+      <c r="G90">
+        <v>-0.06411093224931542</v>
+      </c>
+      <c r="H90">
+        <v>0.01628632527746195</v>
+      </c>
+      <c r="I90">
+        <v>0.08301767904630865</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1700112545783404</v>
+        <v>-0.07483108558872577</v>
       </c>
       <c r="C91">
-        <v>-0.1698736951289548</v>
+        <v>-0.2099790995574147</v>
       </c>
       <c r="D91">
-        <v>-0.08981802692626932</v>
+        <v>-0.1046484241646084</v>
       </c>
       <c r="E91">
-        <v>0.1016045781951134</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06727771951990709</v>
+      </c>
+      <c r="F91">
+        <v>-0.07082448767911147</v>
+      </c>
+      <c r="G91">
+        <v>-0.01432067571061545</v>
+      </c>
+      <c r="H91">
+        <v>-0.01002037107431764</v>
+      </c>
+      <c r="I91">
+        <v>0.1162420947647621</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2126324672914636</v>
+        <v>-0.3335702674128579</v>
       </c>
       <c r="C92">
-        <v>0.2775270142197716</v>
+        <v>0.1515669899368309</v>
       </c>
       <c r="D92">
-        <v>-0.04857764887408116</v>
+        <v>-0.005274093087264721</v>
       </c>
       <c r="E92">
-        <v>0.05415290093923598</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.07418453876425866</v>
+      </c>
+      <c r="F92">
+        <v>-0.02011195080866071</v>
+      </c>
+      <c r="G92">
+        <v>-0.03040765813247633</v>
+      </c>
+      <c r="H92">
+        <v>-0.03034198190772503</v>
+      </c>
+      <c r="I92">
+        <v>-0.1568332960398643</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2558603491151923</v>
+        <v>-0.3320028242305205</v>
       </c>
       <c r="C93">
-        <v>0.2736425324401221</v>
+        <v>0.1216315647244466</v>
       </c>
       <c r="D93">
-        <v>0.01918297956125114</v>
+        <v>-0.01197238107648991</v>
       </c>
       <c r="E93">
-        <v>0.00648656102823342</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.0278039871494981</v>
+      </c>
+      <c r="F93">
+        <v>-0.01158882136001692</v>
+      </c>
+      <c r="G93">
+        <v>0.01286152779358803</v>
+      </c>
+      <c r="H93">
+        <v>-0.007384512952115293</v>
+      </c>
+      <c r="I93">
+        <v>0.1032940370401936</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.3173691467077567</v>
+        <v>-0.1469029152034412</v>
       </c>
       <c r="C94">
-        <v>-0.2362366659815724</v>
+        <v>-0.3508399492564169</v>
       </c>
       <c r="D94">
-        <v>-0.3712417154902958</v>
+        <v>-0.3446332144468672</v>
       </c>
       <c r="E94">
-        <v>-0.1853879281994543</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.04357379984727489</v>
+      </c>
+      <c r="F94">
+        <v>0.1056359707022767</v>
+      </c>
+      <c r="G94">
+        <v>-0.3148162715768519</v>
+      </c>
+      <c r="H94">
+        <v>0.05706076013171883</v>
+      </c>
+      <c r="I94">
+        <v>-0.4012857002492524</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.01832289293202313</v>
+        <v>-0.01859191084539</v>
       </c>
       <c r="C95">
-        <v>-0.03721886997332589</v>
+        <v>-0.05900579541163693</v>
       </c>
       <c r="D95">
-        <v>0.06329540072853765</v>
+        <v>0.1099227307240286</v>
       </c>
       <c r="E95">
-        <v>0.09381013471992079</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1910621159330486</v>
+      </c>
+      <c r="F95">
+        <v>0.07532711293130918</v>
+      </c>
+      <c r="G95">
+        <v>0.1550935301580882</v>
+      </c>
+      <c r="H95">
+        <v>-0.3567743243255355</v>
+      </c>
+      <c r="I95">
+        <v>-0.5066952987600876</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.0003553221436453703</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0001708438793157813</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0004056667382797395</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.00112893723281591</v>
+      </c>
+      <c r="F97">
+        <v>0.001547521682589358</v>
+      </c>
+      <c r="G97">
+        <v>0.0005738742124506808</v>
+      </c>
+      <c r="H97">
+        <v>-0.0003199497005653473</v>
+      </c>
+      <c r="I97">
+        <v>-0.0006787594461402918</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1547155644271465</v>
+        <v>-0.1153351373961397</v>
       </c>
       <c r="C98">
-        <v>-0.06400549541737237</v>
+        <v>-0.1416446182098689</v>
       </c>
       <c r="D98">
-        <v>0.1175859631476015</v>
+        <v>0.06253713767635607</v>
       </c>
       <c r="E98">
-        <v>-0.2018575724156758</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2649771696552904</v>
+      </c>
+      <c r="F98">
+        <v>0.1697835792288015</v>
+      </c>
+      <c r="G98">
+        <v>0.255014396637067</v>
+      </c>
+      <c r="H98">
+        <v>0.1831955626761251</v>
+      </c>
+      <c r="I98">
+        <v>-0.04210457194182541</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.00234810020753881</v>
+        <v>0.00157563914031605</v>
       </c>
       <c r="C101">
-        <v>-0.02249134845112588</v>
+        <v>-0.0294579884060133</v>
       </c>
       <c r="D101">
-        <v>0.1028669184774768</v>
+        <v>0.09751094710589354</v>
       </c>
       <c r="E101">
-        <v>0.009994805457279286</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.04226282462310704</v>
+      </c>
+      <c r="F101">
+        <v>-0.02931438898753733</v>
+      </c>
+      <c r="G101">
+        <v>0.01126932979290513</v>
+      </c>
+      <c r="H101">
+        <v>-0.1299115933530967</v>
+      </c>
+      <c r="I101">
+        <v>0.01425176810541546</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1201514835805614</v>
+        <v>-0.03751571615612942</v>
       </c>
       <c r="C102">
-        <v>-0.1441290387111341</v>
+        <v>-0.1533228072161534</v>
       </c>
       <c r="D102">
-        <v>-0.07178897640966249</v>
+        <v>-0.0910729389467632</v>
       </c>
       <c r="E102">
-        <v>-0.0414095303526239</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03007560043692053</v>
+      </c>
+      <c r="F102">
+        <v>0.06830819373729641</v>
+      </c>
+      <c r="G102">
+        <v>0.01528109071484688</v>
+      </c>
+      <c r="H102">
+        <v>-0.04948423789785399</v>
+      </c>
+      <c r="I102">
+        <v>0.0167738214750556</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
